--- a/output/notes_RESF_generees/tables/Tableau_RESF_2025_1.xlsx
+++ b/output/notes_RESF_generees/tables/Tableau_RESF_2025_1.xlsx
@@ -466,68 +466,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Solde structurel</t>
+          <t>Solde structurel (en % du PIB)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-4,6 %</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3,3 %</t>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Solde conjoncturel</t>
+          <t>Solde conjoncturel (en % du PIB)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0,4 %</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0,4 %</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Solde des mesures ponctuelles et temporaires</t>
+          <t>Solde des mesures ponctuelles et temporaires (en % du PIB)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0,1 %</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0,1 %</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Solde effectif</t>
+          <t>Solde effectif (en % du PIB)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-5,0 %</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3,7 %</t>
+          <t>-3,7</t>
         </is>
       </c>
     </row>
